--- a/W6Project/Plan/Plan_v1.xlsx
+++ b/W6Project/Plan/Plan_v1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="28755" windowHeight="12075"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="20700" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$38</definedName>
   </definedNames>
   <calcPr calcId="125725" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="82">
   <si>
     <t>ERD Design</t>
   </si>
@@ -176,40 +176,108 @@
     <t>JMS structure body and working initial project</t>
   </si>
   <si>
+    <t>Integrate JMS to WebProject</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creating a junit testing </t>
+  </si>
+  <si>
+    <t>TESTING</t>
+  </si>
+  <si>
+    <t>User testing</t>
+  </si>
+  <si>
+    <t>Class diagram</t>
+  </si>
+  <si>
+    <t>Logger Implementation</t>
+  </si>
+  <si>
+    <t>Listener Implementation</t>
+  </si>
+  <si>
+    <t>Filters Implementation</t>
+  </si>
+  <si>
+    <t>Session Application</t>
+  </si>
+  <si>
+    <t>JMS service  with controller service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+DEQUIAL</t>
+  </si>
+  <si>
+    <t>Explore and Test Generic DAO implementation</t>
+  </si>
+  <si>
+    <t>.5 MD</t>
+  </si>
+  <si>
+    <t>JAVA DOC</t>
+  </si>
+  <si>
+    <t>DELOAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Powerpoint </t>
+  </si>
+  <si>
+    <t>PPT</t>
+  </si>
+  <si>
+    <t>Application of Generic DAO and changing code in implementation</t>
+  </si>
+  <si>
+    <t>.4 MD</t>
+  </si>
+  <si>
+    <t>Admin View</t>
+  </si>
+  <si>
+    <t>contact  us</t>
+  </si>
+  <si>
+    <t>Edit profile functions and UI</t>
+  </si>
+  <si>
+    <t>UI design for my profile, register login menu</t>
+  </si>
+  <si>
+    <t>Alerts design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI </t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
     <t>BARREPE
-DEQUIAL
-ANDESMA</t>
-  </si>
-  <si>
-    <t>Integrate JMS to WebProject</t>
-  </si>
-  <si>
-    <t>Saturday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creating a junit testing </t>
-  </si>
-  <si>
-    <t>TESTING</t>
-  </si>
-  <si>
-    <t>User testing</t>
+RACELPA</t>
+  </si>
+  <si>
+    <t>DEQUIAL
+BARREPE</t>
+  </si>
+  <si>
+    <t>Partial</t>
+  </si>
+  <si>
+    <t>Not implemented</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -223,13 +291,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -244,20 +331,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -554,18 +660,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="A2:H23"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="60.140625" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" customWidth="1"/>
     <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" customWidth="1"/>
@@ -573,546 +679,1018 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="6">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="6">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="3">
         <v>2</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="3">
         <v>2</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="6">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="6">
-        <v>1</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="5" t="s">
+      <c r="G9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="6">
-        <v>1</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="5" t="s">
+      <c r="G10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="6">
-        <v>1</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="5" t="s">
+      <c r="G11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="6">
-        <v>1</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="5" t="s">
+      <c r="G12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="6">
-        <v>1</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" s="5" t="s">
+      <c r="G13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="3">
         <v>2</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="D14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="3">
         <v>2</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="5" t="s">
+      <c r="D15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="3">
         <v>2</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="D16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="45">
-      <c r="A17" t="s">
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" ht="45">
+      <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
       </c>
-      <c r="E17" t="s">
+      <c r="D17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G17" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" s="4" t="s">
+      <c r="F17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="45">
-      <c r="A18" t="s">
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" ht="30">
+      <c r="A18" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
       </c>
-      <c r="E18" t="s">
+      <c r="D18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" t="s">
-        <v>53</v>
+      <c r="G18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C19" s="3">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" t="s">
-        <v>53</v>
+        <v>2</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C20" s="3">
         <v>2</v>
       </c>
-      <c r="E20" t="s">
+      <c r="D20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="10">
+        <v>1</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="15">
+        <v>1</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="15">
+        <v>2</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="1:9" ht="30">
+      <c r="A32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G20" t="s">
+      <c r="F32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="3">
+        <v>2</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="3">
+        <v>2</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="30">
+      <c r="A35" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="11">
+        <v>1</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="12"/>
+      <c r="G35" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="7">
+        <v>2</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="3">
+      <c r="B38" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="7">
         <v>2</v>
       </c>
-      <c r="E21" t="s">
-        <v>42</v>
-      </c>
-      <c r="G21" t="s">
-        <v>55</v>
-      </c>
-      <c r="H21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="3">
-        <v>2</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="D38" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G22" t="s">
-        <v>55</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="F38" s="6"/>
+      <c r="G38" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H38" s="6" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1"/>
+  <autoFilter ref="A1:I38"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
